--- a/Souq/src/price/Souq/excel_102_regatas.xlsx
+++ b/Souq/src/price/Souq/excel_102_regatas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,1708 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>REGATA ARP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-arp-04-23-03-030-050.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>REGATA LOIDE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-loide-04-23-03-066-030.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>94,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COLETE DAL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colete-dal-04-23-21-001-008.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>REGATA TRICOT ANA CLARA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-tricot-ana-clara-04-24-09-029-054.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>REGATA TACI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-taci-04-26-12-447-006.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>REGATA GENI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-geni-04-26-12-457-054.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>598,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>REGATA MARIA CECILIA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-maria-cecilia-04-26-12-458-054.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>678,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>328,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>REGATA JACIARA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-jaciara-04-23-03-043-043.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>49,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>REGATA KATHY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-kathy-04-26-12-377-035.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>87,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>REGATA ARP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-arp-04-23-03-030-006.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>REGATA TRICOT KAY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-tricot-kay-04-24-09-023-002.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>REGATA TRICOT CILA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-tricot-cila-04-24-09-027-035.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>269,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>REGATA ATENAS</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-atenas-04-26-12-437-054.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>REGATA EMMA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-emma-04-26-12-438-043.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>678,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>328,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>REGATA ROSANA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-na-04-26-12-439-054.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>249,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>REGATA LILA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-lila-04-26-12-443-054.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>398,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>REGATA JUREMA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-jurema-04-23-03-042-002.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>REGATA AMANDY</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-amandy-04-23-03-047-053.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>REGATA MAIBE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-maibe-04-26-12-390-002.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>147,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>REGATA KATHY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-kathy-04-26-12-377-043.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>REGATA FELIPA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-felipa-04-26-12-403-035.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>REGATA MEGAN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-megan-04-26-12-385-002.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>REGATA LIVIA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-livia-04-26-12-380-007.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>127,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>REGATA TRICOT JOSEANE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-tricot-joseane-04-24-09-009-002.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>REGATA ARRIFE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-arrife-04-23-03-052-001.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>REGATA UDON</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-udon-04-26-12-016-001.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>439,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>REGATA KATHY</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-kathy-04-26-12-377-002.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>87,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>REGATA TRICOT HELO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-tricot-helo-04-24-09-018-009.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>REGATA TRICOT HELO</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-tricot-helo-04-24-09-018-006.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>REGATA FELIPA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-felipa-04-26-12-403-002.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>REGATA LORA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-lora-04-23-03-036-002.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>REGATA DANUBIA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-danubia-04-26-12-420-054.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>147,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>REGATA KAYLANE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-kaylane-04-26-12-422-054.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>REGATA KIT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-kit-04-26-12-421-054.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>109,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>REGATA KATHY</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-kathy-04-26-12-377-006.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>REGATA JORDANA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-jordana-04-23-03-033-002.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>REGATA LUPITA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-lupita-04-26-12-426-054.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>208,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>REGATA ARRIFE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-arrife-04-23-03-052-043.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>REGATA KALIM</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-kalim-04-23-03-055-006.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>99,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>REGATA LIKA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-lika-04-26-12-416-057.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>REGATA TRICOT MAI</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-tricot-mai-04-24-09-019-053.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>REGATA AIRLIE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-airlie-04-23-03-008-005.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>549,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>REGATA ZOE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-zoe-04-26-12-379-013.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>REGATA NARCISA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-narcisa-04-26-12-395-003.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>117,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>REGATA GABY</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-gaby-04-26-12-400-007.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>REGATAS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/regatas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>REGATA GAL</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/regata-gal-04-26-12-082-005.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>143,60</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
